--- a/ERα_activity_bp.xlsx
+++ b/ERα_activity_bp.xlsx
@@ -456,9 +456,11 @@
           <t>COc1cc(OC)cc(\C=C\c2ccc(OS(=O)(=O)[C@@H]3C[C@@H]4O[C@H]3C(=C4c5ccc(O)cc5)c6ccc(O)cc6)cc2)c1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>28.33260253288797</v>
+      </c>
       <c r="C2" t="n">
-        <v>7.490969693001217</v>
+        <v>7.547713530888687</v>
       </c>
     </row>
     <row r="3">
@@ -467,9 +469,11 @@
           <t>OC(=O)\C=C\c1ccc(cc1)C2=C(CCOc3ccccc23)c4ccc(O)cc4</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>29.10627424041849</v>
+      </c>
       <c r="C3" t="n">
-        <v>7.251114224567762</v>
+        <v>7.536013383031955</v>
       </c>
     </row>
     <row r="4">
@@ -478,9 +482,11 @@
           <t>COc1ccc2C(=C(CCOc2c1)c3ccc(O)cc3)c4ccc(\C=C\C(=O)O)cc4</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>74.51281890272352</v>
+      </c>
       <c r="C4" t="n">
-        <v>7.379771994403906</v>
+        <v>7.127769006448871</v>
       </c>
     </row>
     <row r="5">
@@ -489,9 +495,11 @@
           <t>OC(=O)\C=C\c1ccc(cc1)C2=C(CCOc3cc(F)ccc23)c4ccc(O)cc4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>28.76984969485796</v>
+      </c>
       <c r="C5" t="n">
-        <v>7.768175284569343</v>
+        <v>7.541062407030922</v>
       </c>
     </row>
     <row r="6">
@@ -500,9 +508,11 @@
           <t>OC(=O)\C=C\c1ccc(cc1)C2=C(CCSc3cc(F)ccc23)c4ccc(O)cc4</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>31.29893761478898</v>
+      </c>
       <c r="C6" t="n">
-        <v>7.717969314573539</v>
+        <v>7.504470403535507</v>
       </c>
     </row>
     <row r="7">
@@ -511,9 +521,11 @@
           <t>CC(=O)\C=C\c1ccc(cc1)C2=C(CCOc3cc(F)ccc23)c4ccc(O)cc4</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>131.4355394878399</v>
+      </c>
       <c r="C7" t="n">
-        <v>6.999772361129555</v>
+        <v>6.881287187922721</v>
       </c>
     </row>
     <row r="8">
@@ -522,9 +534,11 @@
           <t>Oc1ccc(cc1)C2=C(c3ccc(\C=C\c4ccccc4)cc3)c5ccc(F)cc5OCC2</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>27.28632274028142</v>
+      </c>
       <c r="C8" t="n">
-        <v>7.293197926847789</v>
+        <v>7.564054988375936</v>
       </c>
     </row>
     <row r="9">
@@ -533,9 +547,11 @@
           <t>Oc1ccc(cc1)C2=C(c3ccc(\C=C\C(=O)c4ccccc4)cc3)c5ccc(F)cc5OCC2</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>25.85048388871273</v>
+      </c>
       <c r="C9" t="n">
-        <v>7.659034045795866</v>
+        <v>7.587531323044665</v>
       </c>
     </row>
     <row r="10">
@@ -544,9 +560,11 @@
           <t>OC(=O)\C=C\C=C\c1ccc(cc1)C2=C(CCOc3cc(F)ccc23)c4ccc(O)cc4</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>131.4427066860019</v>
+      </c>
       <c r="C10" t="n">
-        <v>7.46940048872024</v>
+        <v>6.881263506430178</v>
       </c>
     </row>
     <row r="11">
@@ -555,9 +573,11 @@
           <t>CCN(CC)C(=O)\C=C\c1ccc(cc1)C2=C(CCOc3cc(F)ccc23)c4ccc(O)cc4</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>35.36639224507871</v>
+      </c>
       <c r="C11" t="n">
-        <v>7.318111225720475</v>
+        <v>7.451409240664987</v>
       </c>
     </row>
     <row r="12">
@@ -566,9 +586,11 @@
           <t>Oc1ccc(cc1)C2=C(c3ccc(\C=C\C(=O)N4CCCC4)cc3)c5ccc(F)cc5OCC2</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>21.55990994546727</v>
+      </c>
       <c r="C12" t="n">
-        <v>7.131884975665254</v>
+        <v>7.666353057505165</v>
       </c>
     </row>
     <row r="13">
@@ -577,9 +599,11 @@
           <t>CCN(CC)CCNC(=O)\C=C\c1ccc(cc1)C2=C(CCOc3cc(F)ccc23)c4ccc(O)cc4</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>66.53242700903343</v>
+      </c>
       <c r="C13" t="n">
-        <v>7.093862770669899</v>
+        <v>7.176966633815252</v>
       </c>
     </row>
     <row r="14">
@@ -588,9 +612,11 @@
           <t>Oc1ccc(cc1)C2=C(c3ccc(\C=C\C(=O)N4CCNCC4)cc3)c5ccc(F)cc5OCC2</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>58.8565252352827</v>
+      </c>
       <c r="C14" t="n">
-        <v>7.525781131973432</v>
+        <v>7.230205381306879</v>
       </c>
     </row>
     <row r="15">
@@ -599,9 +625,11 @@
           <t>CN1CCN(CC1)C(=O)\C=C\c2ccc(cc2)C3=C(CCOc4cc(F)ccc34)c5ccc(O)cc5</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>40.71609161209677</v>
+      </c>
       <c r="C15" t="n">
-        <v>7.615199009931903</v>
+        <v>7.390233917134074</v>
       </c>
     </row>
     <row r="16">
@@ -610,9 +638,11 @@
           <t>Oc1ccc(cc1)C2=C(c3ccc(\C=C\C(=O)N4CCN(Cc5ccccc5)CC4)cc3)c6ccc(F)cc6OCC2</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>20.38412464669356</v>
+      </c>
       <c r="C16" t="n">
-        <v>7.984424877928234</v>
+        <v>7.69070793367335</v>
       </c>
     </row>
     <row r="17">
@@ -621,9 +651,11 @@
           <t>Cc1ccc(cc1)N2CCN(CC2)C(=O)\C=C\c3ccc(cc3)C4=C(CCOc5cc(F)ccc45)c6ccc(O)cc6</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>21.77338567334036</v>
+      </c>
       <c r="C17" t="n">
-        <v>8.049726300936612</v>
+        <v>7.662074034673912</v>
       </c>
     </row>
     <row r="18">
@@ -632,9 +664,11 @@
           <t>Oc1ccc(cc1)C2=C(c3ccc(\C=C\C(=O)Nc4ccccc4)cc3)c5ccc(F)cc5OCC2</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>22.8877357918563</v>
+      </c>
       <c r="C18" t="n">
-        <v>6.98318238989923</v>
+        <v>7.640397168519867</v>
       </c>
     </row>
     <row r="19">
@@ -643,9 +677,11 @@
           <t>OC(=O)COc1ccc(cc1)C2=C(CCOc3cc(F)ccc23)c4ccc(O)cc4</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>123.874290679154</v>
+      </c>
       <c r="C19" t="n">
-        <v>6.710930574080789</v>
+        <v>6.907018819328152</v>
       </c>
     </row>
     <row r="20">
@@ -654,9 +690,11 @@
           <t>Oc1ccc(cc1)C2=C(c3ccc(C=O)cc3)c4ccc(F)cc4OCC2</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>153.6897346435005</v>
+      </c>
       <c r="C20" t="n">
-        <v>6.846910038685175</v>
+        <v>6.813355139244344</v>
       </c>
     </row>
     <row r="21">
@@ -665,9 +703,11 @@
           <t>CCC(=C(c1ccc(O)cc1)c2ccc(\C=C\C(=O)O)cc2)c3ccccc3</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>6.369478776435873</v>
+      </c>
       <c r="C21" t="n">
-        <v>7.75792500038775</v>
+        <v>8.195896105149634</v>
       </c>
     </row>
     <row r="22">
@@ -676,9 +716,11 @@
           <t>OC(=O)CCCOc1ccc(cc1)C2=C(CCOc3cc(F)ccc23)c4ccc(O)cc4</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>133.5458010212622</v>
+      </c>
       <c r="C22" t="n">
-        <v>7.428923617729468</v>
+        <v>6.874369762618004</v>
       </c>
     </row>
     <row r="23">
@@ -687,9 +729,11 @@
           <t>COc1ccc2C(=C(CCOc2c1)c3ccc(O)cc3)c4ccc(OCC(=O)O)cc4</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>172.6103841189201</v>
+      </c>
       <c r="C23" t="n">
-        <v>6.702409027519435</v>
+        <v>6.762933080985285</v>
       </c>
     </row>
     <row r="24">
@@ -698,9 +742,11 @@
           <t>CCCC(CCC)(c1ccc(O)c(C)c1)c2cccs2</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>172.4192165012546</v>
+      </c>
       <c r="C24" t="n">
-        <v>7.028553462496015</v>
+        <v>6.763414332737697</v>
       </c>
     </row>
     <row r="25">
@@ -709,9 +755,11 @@
           <t>CCCC(CCC)(c1ccc(O)c(C)c1)c2cc(C)cs2</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="n">
+        <v>72.95012420539926</v>
+      </c>
       <c r="C25" t="n">
-        <v>7.146888575384705</v>
+        <v>7.136973964337033</v>
       </c>
     </row>
     <row r="26">
@@ -720,9 +768,11 @@
           <t>CCCC(CCC)(c1ccc(O)c(C)c1)c2ccc([nH]2)C(=O)OCC</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>131.4899091188009</v>
+      </c>
       <c r="C26" t="n">
-        <v>6.929232277134497</v>
+        <v>6.881107574795341</v>
       </c>
     </row>
     <row r="27">
@@ -731,9 +781,11 @@
           <t>CCCC(CCC)(c1ccc(O)c(C)c1)c2ccc(C(=O)OCC)n2C</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
+      <c r="B27" t="n">
+        <v>107.55663855462</v>
+      </c>
       <c r="C27" t="n">
-        <v>6.939346294680804</v>
+        <v>6.968362779152267</v>
       </c>
     </row>
     <row r="28">
@@ -742,9 +794,11 @@
           <t>CCCC(CCC)(c1ccc(O)c(C)c1)c2c[nH]c3cc(OCc4ccccc4)ccc23</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="n">
+        <v>70.68743290948106</v>
+      </c>
       <c r="C28" t="n">
-        <v>6.835816054702391</v>
+        <v>7.15065778992578</v>
       </c>
     </row>
     <row r="29">
@@ -753,9 +807,11 @@
           <t>Oc1ccc(cc1)c2nc(Cl)c(c(Oc3ccc(OCCN4CCCC4)cc3)n2)c5ccccc5</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="n">
+        <v>180.8476190972038</v>
+      </c>
       <c r="C29" t="n">
-        <v>6.169153982708375</v>
+        <v>6.74268720445698</v>
       </c>
     </row>
     <row r="30">
@@ -764,9 +820,11 @@
           <t>CN(C)CCOc1ccc(Nc2nc(nc(Cl)c2c3ccccc3)c4ccc(O)cc4)cc1</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" t="n">
+        <v>134.0334734809928</v>
+      </c>
       <c r="C30" t="n">
-        <v>6.264012697200855</v>
+        <v>6.872786727510882</v>
       </c>
     </row>
     <row r="31">
@@ -775,9 +833,11 @@
           <t>COc1ccc(cc1)c2nc(Cl)c(c(Oc3ccc(OCCN4CCCC4)cc3)n2)c5ccccc5</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
+      <c r="B31" t="n">
+        <v>1155.930463345706</v>
+      </c>
       <c r="C31" t="n">
-        <v>5.552779725244633</v>
+        <v>5.937068290736922</v>
       </c>
     </row>
     <row r="32">
@@ -786,9 +846,11 @@
           <t>COc1ccc(cc1)c2nc(Cl)cc(Oc3ccc(OCCN4CCCC4)cc3)n2</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
+      <c r="B32" t="n">
+        <v>7373.006805981483</v>
+      </c>
       <c r="C32" t="n">
-        <v>4.950222234131854</v>
+        <v>5.132355365201901</v>
       </c>
     </row>
     <row r="33">
@@ -797,9 +859,11 @@
           <t>CCN(CC)CCOc1ccc(Oc2cc(Cl)nc(n2)c3ccc(OC)cc3)cc1</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
+      <c r="B33" t="n">
+        <v>7266.45136299151</v>
+      </c>
       <c r="C33" t="n">
-        <v>4.87234615102241</v>
+        <v>5.138677628993495</v>
       </c>
     </row>
     <row r="34">
@@ -808,9 +872,11 @@
           <t>COc1ccc(cc1)c2nc(Cl)cc(Oc3ccc(OCCN(C)C)cc3)n2</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
+      <c r="B34" t="n">
+        <v>6194.295436194022</v>
+      </c>
       <c r="C34" t="n">
-        <v>5.125476973808087</v>
+        <v>5.208008084860893</v>
       </c>
     </row>
     <row r="35">
@@ -819,9 +885,11 @@
           <t>CCN(CC)CCOc1ccc(Nc2cc(Cl)nc(n2)c3ccc(OC)cc3)cc1</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
+      <c r="B35" t="n">
+        <v>8179.711950306772</v>
+      </c>
       <c r="C35" t="n">
-        <v>4.888888324707941</v>
+        <v>5.08726198979994</v>
       </c>
     </row>
     <row r="36">
@@ -830,9 +898,11 @@
           <t>COc1ccc(cc1)c2nc(Cl)cc(Nc3ccc(NC(=O)CN4CCCC4)cc3)n2</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
+      <c r="B36" t="n">
+        <v>8996.896598766441</v>
+      </c>
       <c r="C36" t="n">
-        <v>4.988930632168605</v>
+        <v>5.045907270833827</v>
       </c>
     </row>
     <row r="37">
@@ -841,9 +911,11 @@
           <t>CO[C@H]1C[C@H](C)CC2=C(NC\C=C\CCC[C@@H]3C[C@H]4[C@@H]5CCc6cc(O)ccc6[C@H]5CC[C@]4(C)[C@H]3O)C(=O)C=C(NC(=O)\C(=C\C=C/[C@H](OC)[C@@H](OC(=O)N)\C(=C\[C@H](C)[C@H]1O)\C)\C)C2=O</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
+      <c r="B37" t="n">
+        <v>248.6874642443717</v>
+      </c>
       <c r="C37" t="n">
-        <v>7.173627903080321</v>
+        <v>6.604346105951248</v>
       </c>
     </row>
     <row r="38">
@@ -852,9 +924,11 @@
           <t>CO[C@H]1C[C@H](C)CC2=C(NCC#CCC[C@@H]3C[C@H]4[C@@H]5CCc6cc(O)ccc6[C@H]5CC[C@]4(C)[C@H]3O)C(=O)C=C(NC(=O)\C(=C\C=C/[C@H](OC)[C@@H](OC(=O)N)\C(=C\[C@H](C)[C@H]1O)\C)\C)C2=O</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
+      <c r="B38" t="n">
+        <v>319.9280865388298</v>
+      </c>
       <c r="C38" t="n">
-        <v>7.127005514460429</v>
+        <v>6.494947631458909</v>
       </c>
     </row>
     <row r="39">
@@ -863,9 +937,11 @@
           <t>C[C@]12CC[C@H]3[C@@H](CCc4cc(O)ccc34)[C@@H]1CC[C@@]2(O)C#CC(=O)OCC5CCC#C\C=C/C#CC5</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
+      <c r="B39" t="n">
+        <v>103.9704102600206</v>
+      </c>
       <c r="C39" t="n">
-        <v>6.737090274701407</v>
+        <v>6.98309024232867</v>
       </c>
     </row>
     <row r="40">
@@ -874,9 +950,11 @@
           <t>CC(C)C[C@H](NC(=O)[C@](C)(CCCC=C)NC(=O)[C@H](CCC(=O)N)NC(=O)[C@H](Cc1cnc[nH]1)NC(=O)[C@H](CC(C)C)NC(=O)[C@](C)(CCCC=C)NC(=O)[C@H](CCCCN)NC(=O)[C@H](Cc2cnc[nH]2)NC(=O)C)C(=O)N[C@@H](CCC(=O)N)C(=O)N[C@@H](CC(=O)O)C(=O)N[C@@H](CO)C(=O)N</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
+      <c r="B40" t="n">
+        <v>162.4230713442558</v>
+      </c>
       <c r="C40" t="n">
-        <v>6.30656541962956</v>
+        <v>6.789352281462826</v>
       </c>
     </row>
     <row r="41">
@@ -885,9 +963,11 @@
           <t>CC(C)C[C@H](NC(=O)[C@]1(C)CCC\C=C/CCC[C@](C)(NC(=O)[C@H](CCCCN)NC(=O)[C@H](Cc2cnc[nH]2)NC(=O)C)C(=O)N[C@@H](CC(C)C)C(=O)N[C@@H](Cc3cnc[nH]3)C(=O)N[C@@H](CCCNC(=N)N)C(=O)N1)C(=O)N[C@@H](CCC(=O)N)C(=O)N[C@@H](CC(=O)O)C(=O)N[C@@H](CO)C(=O)N</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
+      <c r="B41" t="n">
+        <v>185.1610639141174</v>
+      </c>
       <c r="C41" t="n">
-        <v>6.277444382051263</v>
+        <v>6.732450332476055</v>
       </c>
     </row>
     <row r="42">
@@ -896,9 +976,11 @@
           <t>CC(C)C[C@H](NC(=O)[C@]1(C)CCC\C=C/C[C@@H](C)C[C@](C)(NC(=O)[C@H](CCCCN)NC(=O)[C@H](Cc2cnc[nH]2)NC(=O)C)C(=O)N[C@@H](CC(C)C)C(=O)N[C@@H](Cc3cnc[nH]3)C(=O)N[C@@H](CCCNC(=N)N)C(=O)N1)C(=O)N[C@@H](CCC(=O)N)C(=O)N[C@@H](CC(=O)O)C(=O)N[C@@H](CO)C(=O)N</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
+      <c r="B42" t="n">
+        <v>183.4160473333384</v>
+      </c>
       <c r="C42" t="n">
-        <v>6.460954759835642</v>
+        <v>6.736562669955891</v>
       </c>
     </row>
     <row r="43">
@@ -907,9 +989,11 @@
           <t>CC(C)C[C@H](NC(=O)[C@]1(C)C[C@H](C)C\C=C/CCC[C@](C)(NC(=O)[C@H](CCCCN)NC(=O)[C@H](Cc2cnc[nH]2)NC(=O)C)C(=O)N[C@@H](CC(C)C)C(=O)N[C@@H](Cc3cnc[nH]3)C(=O)N[C@@H](CCCNC(=N)N)C(=O)N1)C(=O)N[C@@H](CCC(=O)N)C(=O)N[C@@H](CC(=O)O)C(=O)N[C@@H](CO)C(=O)N</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
+      <c r="B43" t="n">
+        <v>227.263568446767</v>
+      </c>
       <c r="C43" t="n">
-        <v>6.420479744286896</v>
+        <v>6.643470178400174</v>
       </c>
     </row>
     <row r="44">
@@ -918,9 +1002,11 @@
           <t>CC(C)C[C@H](NC(=O)[C@]1(C)CCC\C=C/CCC[C@](C)(NC(=O)[C@H](CCCCN)NC(=O)[C@H](Cc2cnc[nH]2)NC(=O)C)C(=O)N[C@@H](CC(C)C)C(=O)N[C@@H](Cc3cnc[nH]3)C(=O)N[C@@H](CCC(=O)N)C(=O)N1)C(=O)N[C@@H](CCC(=O)N)C(=O)N[C@@H](CC(=O)O)C(=O)N[C@@H](CO)C(=O)N</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
+      <c r="B44" t="n">
+        <v>108.6234106088416</v>
+      </c>
       <c r="C44" t="n">
-        <v>6.295609874546153</v>
+        <v>6.964076565147279</v>
       </c>
     </row>
     <row r="45">
@@ -929,9 +1015,11 @@
           <t>CC[C@H](C)[C@H](NC(=O)[C@H](CCCCN)NC(=O)[C@H](Cc1cnc[nH]1)NC(=O)C)C(=O)N[C@@H](CC(C)C)C(=O)N[C@@H](Cc2cnc[nH]2)C(=O)N[C@@H](CCCNC(=N)N)C(=O)N[C@@H](CC(C)C)C(=O)N[C@@H](CC(C)C)C(=O)N[C@@H](CCC(=O)N)C(=O)N[C@@H](CC(=O)O)C(=O)N[C@@H](CO)C(=O)N</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
+      <c r="B45" t="n">
+        <v>154.919088249542</v>
+      </c>
       <c r="C45" t="n">
-        <v>6.5332009805125</v>
+        <v>6.809895067646179</v>
       </c>
     </row>
     <row r="46">
@@ -940,9 +1028,11 @@
           <t>CC(C)C[C@H](NC(=O)[C@]1(C)CCC\C=C/C[C@H](C)C[C@](C)(NC(=O)[C@H](CCCCN)NC(=O)[C@H](Cc2cnc[nH]2)NC(=O)C)C(=O)N[C@@H](CC(C)C)C(=O)N[C@@H](Cc3cnc[nH]3)C(=O)N[C@@H](CCCNC(=N)N)C(=O)N1)C(=O)N[C@@H](CCC(=O)N)C(=O)N[C@@H](CC(=O)O)C(=O)N[C@@H](CO)C(=O)N</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
+      <c r="B46" t="n">
+        <v>183.4160473333384</v>
+      </c>
       <c r="C46" t="n">
-        <v>6.460954759835642</v>
+        <v>6.736562669955891</v>
       </c>
     </row>
     <row r="47">
@@ -951,9 +1041,11 @@
           <t>CC\C(=C(/c1ccc(O)cc1)\c2ccc(OCCN(C)C)cc2)\c3ccc(cc3)C(=O)NO</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
+      <c r="B47" t="n">
+        <v>97.33216515386346</v>
+      </c>
       <c r="C47" t="n">
-        <v>6.854157411376351</v>
+        <v>7.011743615637088</v>
       </c>
     </row>
     <row r="48">
@@ -962,9 +1054,11 @@
           <t>CC\C(=C(/c1ccc(O)cc1)\c2ccc(OCCN(C)C)cc2)\c3ccc(CCCCC(=O)NO)cc3</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
+      <c r="B48" t="n">
+        <v>98.89102734410152</v>
+      </c>
       <c r="C48" t="n">
-        <v>6.842108093483466</v>
+        <v>7.004843111352486</v>
       </c>
     </row>
     <row r="49">
@@ -973,9 +1067,11 @@
           <t>CC\C(=C(/c1ccc(O)cc1)\c2ccc(OCCN(C)C)cc2)\c3ccc(CCC(=O)NO)cc3</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr"/>
+      <c r="B49" t="n">
+        <v>157.1233890324242</v>
+      </c>
       <c r="C49" t="n">
-        <v>6.691579389359736</v>
+        <v>6.803759162053259</v>
       </c>
     </row>
     <row r="50">
@@ -984,9 +1080,11 @@
           <t>CC\C(=C(/c1ccc(O)cc1)\c2ccc(OCCN(C)C)cc2)\c3ccc(OCCCCC(=O)NO)cc3</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
+      <c r="B50" t="n">
+        <v>103.676141884727</v>
+      </c>
       <c r="C50" t="n">
-        <v>6.481776305018074</v>
+        <v>6.98432117263619</v>
       </c>
     </row>
     <row r="51">
@@ -995,9 +1093,11 @@
           <t>CCC(=C(c1ccc(O)cc1)c2ccc(OCCN3CCCC3)cc2)Cc4ccccc4</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
+      <c r="B51" t="n">
+        <v>5.16668784383216</v>
+      </c>
       <c r="C51" t="n">
-        <v>8.070251648125652</v>
+        <v>8.286787776464093</v>
       </c>
     </row>
   </sheetData>
